--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248353.610633747</v>
+        <v>-1250909.926460997</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>230.6902471113966</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>233.1445833309142</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>155.0556308318998</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498662</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -789,7 +789,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>63.57479228760547</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.26463842065493</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>209.3186549522352</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>69.59007774115639</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.4720482862201</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.8723434960324</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>275.1428043778306</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>24.78273763152229</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>54.51165059784287</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>67.29990646927895</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687173974</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462758</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949129827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>162.7401913819111</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495693998</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>73.9889879453531</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634649</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892427565</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>122.4116053749608</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>217.6587144826128</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1675.730933054505</v>
+        <v>1075.349844316073</v>
       </c>
       <c r="C2" t="n">
-        <v>1306.768416114093</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D2" t="n">
-        <v>948.502717507343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E2" t="n">
-        <v>562.7144649090988</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F2" t="n">
-        <v>562.7144649090988</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118627</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2062.330773118627</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4437,22 +4437,22 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.8974549201672</v>
+        <v>228.0547555205103</v>
       </c>
       <c r="C4" t="n">
-        <v>523.9612719922603</v>
+        <v>228.0547555205103</v>
       </c>
       <c r="D4" t="n">
-        <v>523.9612719922603</v>
+        <v>228.0547555205103</v>
       </c>
       <c r="E4" t="n">
-        <v>376.0481784098672</v>
+        <v>228.0547555205103</v>
       </c>
       <c r="F4" t="n">
-        <v>229.1582309119568</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>229.1582309119568</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>82.94104412981463</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218339</v>
@@ -4516,22 +4516,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>409.70322035075</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201672</v>
+        <v>409.70322035075</v>
       </c>
       <c r="Y4" t="n">
-        <v>692.8974549201672</v>
+        <v>409.70322035075</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276232</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3049.335066174043</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3049.335066174043</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3049.335066174043</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2675.869307912963</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>631.469835781224</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C7" t="n">
-        <v>462.5336528533171</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>440.0982547706545</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>440.0982547706545</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>440.0982547706545</v>
       </c>
       <c r="X7" t="n">
-        <v>631.469835781224</v>
+        <v>440.0982547706545</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.469835781224</v>
+        <v>440.0982547706545</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2325.505862906803</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1956.543345966392</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1598.277647359641</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1212.489394761397</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>801.5034899717896</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>386.431039816786</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3300.572753294502</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3300.572753294502</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3047.042276568338</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>3047.042276568338</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2694.273621298224</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y8" t="n">
-        <v>2325.505862906803</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121.5743897633378</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5743897633378</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>121.5743897633378</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>121.5743897633378</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>121.5743897633378</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>121.5743897633378</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438286</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W10" t="n">
-        <v>342.366968906868</v>
+        <v>631.1406868833888</v>
       </c>
       <c r="X10" t="n">
-        <v>342.366968906868</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.5743897633378</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="11">
@@ -5027,55 +5027,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075775</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332381</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398578</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492563</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474768</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466558</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122987</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5094,58 +5094,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300126</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568976</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028054</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797156</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797156</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191911</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349484</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061498</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061498</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190826</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
         <v>2244.643795685161</v>
@@ -5163,7 +5163,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911492</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835852</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345712495</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888563</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934909459</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942058259</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797722</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580255</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603195</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026126</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.42822182024</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783279</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885262</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741732</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5258,49 +5258,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192517</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107578</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014772</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355928</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694694</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398578</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300126</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568976</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028054</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797156</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797156</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797156</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703857</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969357</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951541</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190826</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5382,7 +5382,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
         <v>2244.643795685161</v>
@@ -5400,7 +5400,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400135</v>
+        <v>801.6918836311976</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908936</v>
+        <v>632.7557007032907</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908936</v>
+        <v>482.6390612909549</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908936</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908936</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797722</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279746</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853304</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580203</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832605</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487509</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510451</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854648</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648761</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611801</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447137833</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655702532</v>
+        <v>983.3403484614373</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332381</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398578</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492563</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474768</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466558</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612122987</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852873</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591793</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615981</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,58 +5568,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300126</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568976</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028054</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273849</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803925</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K18" t="n">
-        <v>579.155464951612</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167369</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793919</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348524</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
         <v>2244.643795685161</v>
@@ -5637,7 +5637,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.917417812158</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.917417812158</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.917417812158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.917417812158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797722</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611852</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138347</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703046</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,43 +5738,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819414</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111862</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075948</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5814,43 +5814,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245771</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403343</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266884</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821489</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327588</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327588</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>613.6374994204231</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830889</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851785</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000585</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580255</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603196</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947394</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741507</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704546</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806529</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036629986</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,43 +6051,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.195150674522</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229127</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468412</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.32599396348</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338361</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832231</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553162</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429805</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>985.5125840134629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134629</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954144</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,10 +7351,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,31 +7549,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>132.1283084400933</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>255.8660948215537</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>81.84625573532577</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>72.47534012697047</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548979459</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>123.7828069546799</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392199917</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>72.44497470121607</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194827</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>24.02235727160837</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>68.52575990663138</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1032438.059455368</v>
+        <v>1032438.059455363</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1246147.163652566</v>
+        <v>1246147.163652568</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1246147.163652566</v>
+        <v>1246147.163652567</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1246147.163652567</v>
+        <v>1246147.163652568</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1246147.163652568</v>
+        <v>1246147.163652567</v>
       </c>
     </row>
     <row r="12">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048903</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.984930251</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302509</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302512</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302512</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302512</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
+        <v>184734.3982194635</v>
+      </c>
+      <c r="N2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194637</v>
@@ -26372,7 +26372,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073514</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.104254351957934e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972796</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551082</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.674140528659336e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691688</v>
+        <v>11387.33216691508</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,7 +26430,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189268</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26439,22 +26439,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="N4" t="n">
         <v>24037.44323498545</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498546</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498545</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239068</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239068</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239068</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295739.091651012</v>
+        <v>-1296099.174666729</v>
       </c>
       <c r="C6" t="n">
-        <v>-16796.28644598208</v>
+        <v>-16796.2864459821</v>
       </c>
       <c r="D6" t="n">
-        <v>-16796.28644598223</v>
+        <v>-16796.28644598219</v>
       </c>
       <c r="E6" t="n">
-        <v>-260973.5906728992</v>
+        <v>-261008.3285983388</v>
       </c>
       <c r="F6" t="n">
-        <v>64438.87113445219</v>
+        <v>64404.13320901649</v>
       </c>
       <c r="G6" t="n">
-        <v>64438.87113445172</v>
+        <v>64404.13320901655</v>
       </c>
       <c r="H6" t="n">
-        <v>64438.87113445111</v>
+        <v>64404.13320901667</v>
       </c>
       <c r="I6" t="n">
-        <v>64438.87113445219</v>
+        <v>64404.13320901655</v>
       </c>
       <c r="J6" t="n">
-        <v>-153092.3312628274</v>
+        <v>-153127.0691882608</v>
       </c>
       <c r="K6" t="n">
-        <v>64438.87113445225</v>
+        <v>64404.13320901667</v>
       </c>
       <c r="L6" t="n">
-        <v>38105.12113693095</v>
+        <v>38105.12113693103</v>
       </c>
       <c r="M6" t="n">
-        <v>-27522.18880494811</v>
+        <v>-27522.18880494923</v>
       </c>
       <c r="N6" t="n">
-        <v>57532.83913056285</v>
+        <v>57532.83913056276</v>
       </c>
       <c r="O6" t="n">
-        <v>57532.83913056282</v>
+        <v>57532.83913056288</v>
       </c>
       <c r="P6" t="n">
-        <v>57532.8391305618</v>
+        <v>57532.83913056279</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26793,22 +26793,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099645</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099645</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099645</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483723</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973516</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973516</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973516</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>152.043594552084</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7.612441862212719</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>145.3643866684478</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>181.4050942177456</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.35993189571721</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>47.74312952217998</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>19.46496000948986</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>84.40502415665355</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>90.24336431647791</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>219.2230918673121</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56319401867222e-11</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.184593495262865e-11</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5617729332007e-11</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-5.179880228448989e-11</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.56319401867222e-11</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31619,7 +31619,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473057</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862103</v>
+        <v>479.6444630806902</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861898</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338278</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862103</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485282</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007747</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420748</v>
+        <v>145.7021085929658</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071767</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558083</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305259</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473057</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043895</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862103</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214685</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485282</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179175</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462669</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902926</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674315</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764192</v>
+        <v>337.5104291586719</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417453</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462669</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902926</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315395366</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764192</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997059928</v>
+        <v>373.2618997060438</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316773</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462669</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902926</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774673</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754081</v>
+        <v>18.86448192629906</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238434</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113638</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561669</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674315</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902574</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764192</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071383</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315395351</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
